--- a/biology/Zoologie/Holcosus_quadrilineatus/Holcosus_quadrilineatus.xlsx
+++ b/biology/Zoologie/Holcosus_quadrilineatus/Holcosus_quadrilineatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Holcosus quadrilineatus est une espèce de sauriens de la famille des Teiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Holcosus quadrilineatus est une espèce de sauriens de la famille des Teiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 dans l'Ouest de Panama ;
 au Costa Rica ;
 dans le sud-est du Nicaragua.</t>
@@ -544,7 +558,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Hallowell, 1861 "1860" : Report upon the Reptilia of the North Pacific Exploring Expedition, under command of Capt. John Rogers, U. S. N. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 12, p. 480-510 (texte intégral).</t>
         </is>
